--- a/semester A/It For Business/ergsthrio excel/assignments3_Koutsompinas.xlsx
+++ b/semester A/It For Business/ergsthrio excel/assignments3_Koutsompinas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\dhmhtrioy A eksamhno\ergsthrio excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\It For Business\ergsthrio excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7220BEF6-B26B-42A0-B116-BC9533ADC42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB82999-A3D6-4AF4-9B28-CFFFC5D2742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{EEBECF75-5FB6-4083-8053-9934A9215E86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EEBECF75-5FB6-4083-8053-9934A9215E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Ερωτηματολόγιο" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="1469">
   <si>
     <t>ΑΑ</t>
   </si>
@@ -4415,68 +4415,57 @@
     <t>Average of Ευχαρίστηση</t>
   </si>
   <si>
-    <t>Count of ΑΑ</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Count of ΑΑ2</t>
-  </si>
-  <si>
-    <t>Total Count of ΑΑ</t>
-  </si>
-  <si>
-    <t>Total Count of ΑΑ2</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>18 Total</t>
-  </si>
-  <si>
-    <t>19 Total</t>
-  </si>
-  <si>
-    <t>20 Total</t>
-  </si>
-  <si>
-    <t>21 Total</t>
-  </si>
-  <si>
-    <t>22 Total</t>
-  </si>
-  <si>
-    <t>23 Total</t>
-  </si>
-  <si>
-    <t>24 Total</t>
-  </si>
-  <si>
-    <t>25 Total</t>
-  </si>
-  <si>
-    <t>26 Total</t>
-  </si>
-  <si>
-    <t>27 Total</t>
-  </si>
-  <si>
-    <t>Άνδρας Total</t>
-  </si>
-  <si>
-    <t>Γυναίκα Total</t>
+    <t>Σχετικές Συχνότητες</t>
+  </si>
+  <si>
+    <t>Πλήθος</t>
+  </si>
+  <si>
+    <t>Δεδομένα</t>
+  </si>
+  <si>
+    <t>Αθροιστικές Συχνότητες</t>
+  </si>
+  <si>
+    <t>Πλήθος Ερωτηματολογίων</t>
+  </si>
+  <si>
+    <t>Σύνολο</t>
+  </si>
+  <si>
+    <t>Μ.Ο. Ευχαρίστησης Ανά Φύλο</t>
+  </si>
+  <si>
+    <t>Μ.Ο Ευχαρίστησης ανά φύλο και ηλικία</t>
+  </si>
+  <si>
+    <t>Γενικό Σύνολο</t>
+  </si>
+  <si>
+    <t>Μ.Ο Ευχαρίστησης ανά ηλικία και ημέρα</t>
+  </si>
+  <si>
+    <t>Μ.Ο. Ευχαρίστησης ανά φύλο και ηλικία</t>
+  </si>
+  <si>
+    <t>Βαθμός Ευχαρίστησης</t>
   </si>
   <si>
     <t>Η ικανοποίηση των γυναικών ήταν μεγαλύτερη από
-αυτή των ανδρών ήταν η Δευτέρα, η Τετάρτη και η Κυριακή</t>
+αυτή των ανδρών τη Δευτέρα, την Τετάρτη και την Κυριακή</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4533,7 +4522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4669,26 +4658,66 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF999999"/>
       </bottom>
@@ -4708,7 +4737,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4727,16 +4756,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4749,6 +4774,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4759,17 +4804,9 @@
     <cellStyle name="Τιμή συγκεντρωτικού πίνακα" xfId="5" xr:uid="{CD6755A6-A963-4C54-BD8E-7DFE46693CC3}"/>
     <cellStyle name="Τίτλος συγκεντρωτικού πίνακα" xfId="6" xr:uid="{A270B903-E9A1-428E-89FA-3EB83A1D9C14}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4781,65 +4818,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4907,10 +4892,35 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[assignments3_Koutsompinas.xlsx]Ερώτημα 1!PivotTable5</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Σχετικές Συχνότητες</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4924,9 +4934,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4951,10 +4961,17 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4972,12 +4989,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4987,11 +5001,12 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -5007,20 +5022,57 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
             <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5036,7 +5088,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Πλήθος</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5051,13 +5103,14 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5650-4E2B-A521-EE78AF65946F}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5069,14 +5122,68 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5650-4E2B-A521-EE78AF65946F}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 1'!$A$3:$A$5</c:f>
@@ -5108,16 +5215,157 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DFE-49AA-8863-8A2A28F54DB9}"/>
+              <c16:uniqueId val="{00000000-D38F-4489-8431-8DC4B204AEC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ερώτημα 1'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Σχετικές Συχνότητες</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ερώτημα 1'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Άνδρας</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Γυναίκα</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ερώτημα 1'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.39221140472878996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60778859527120999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D38F-4489-8431-8DC4B204AEC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -5135,7 +5383,11 @@
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5148,7 +5400,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5174,12 +5426,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5210,7 +5469,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -5254,7 +5512,20 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5266,17 +5537,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5287,8 +5558,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5310,7 +5582,20 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="square"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5322,17 +5607,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5343,8 +5628,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5366,7 +5652,20 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="triangle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5378,17 +5677,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5399,8 +5698,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5422,7 +5722,18 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="x"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5434,17 +5745,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5455,8 +5766,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5478,7 +5790,18 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="star"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5490,17 +5813,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5511,8 +5834,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5553,6 +5877,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 8'!$A$6</c:f>
@@ -5606,6 +5987,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 8'!$A$6</c:f>
@@ -5659,6 +6097,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 8'!$A$6</c:f>
@@ -5712,6 +6207,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 8'!$A$6</c:f>
@@ -5765,6 +6317,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Ερώτημα 8'!$A$6</c:f>
@@ -5795,14 +6404,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="191826959"/>
         <c:axId val="191828879"/>
       </c:barChart>
@@ -5813,6 +6424,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5835,7 +6460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5862,53 +6487,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="191826959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5965,7 +6549,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -7173,7 +7757,538 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7184,7 +8299,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7207,18 +8322,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7230,7 +8345,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7238,11 +8353,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7274,35 +8392,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7314,30 +8442,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7359,15 +8491,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7382,15 +8512,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7401,17 +8531,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7420,10 +8549,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -7439,21 +8568,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7472,17 +8595,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7491,17 +8613,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7510,17 +8631,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7541,7 +8661,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -7549,147 +8669,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7711,171 +8694,8 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7883,199 +8703,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -8096,7 +8724,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8105,14 +8733,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8126,7 +8754,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -8142,8 +8770,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8159,6 +8787,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8166,14 +8805,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8685,23 +9318,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085761D8-9B7F-A3A3-C2ED-BB7B7DE7A782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD48ADDA-1CA5-EAD0-74C8-9F8CBE5EE3A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18934,11 +19567,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F35D7704-C775-4B0B-8A77-84F77DE4D514}" name="PivotTable5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="2">
-  <location ref="A1:B5" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F35D7704-C775-4B0B-8A77-84F77DE4D514}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Δεδομένα" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="6">
+  <location ref="A1:C5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -18963,14 +19596,23 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Πλήθος" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+    <dataField name="Σχετικές Συχνότητες" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18979,25 +19621,10 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -19014,8 +19641,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85E2E1C2-AAD4-4CA3-B870-BA678591690F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1:Q4" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85E2E1C2-AAD4-4CA3-B870-BA678591690F}" name="PivotTable3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" grandTotalCaption="Σύνολο" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A1:I5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -19024,83 +19651,69 @@
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="8">
         <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="2">
-    <field x="4"/>
+  <rowFields count="1">
     <field x="-2"/>
-  </colFields>
-  <colItems count="16">
+  </rowFields>
+  <rowItems count="3">
     <i>
       <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
       <x/>
     </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
     <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="5"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="6"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Count of ΑΑ" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of ΑΑ2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  <dataFields count="3">
+    <dataField name="Πλήθος Ερωτηματολογίων" fld="0" subtotal="count" baseField="4" baseItem="0"/>
+    <dataField name="Σχετικές Συχνότητες" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Αθροιστικές Συχνότητες" fld="0" subtotal="count" baseField="4" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfRunningTotal"/>
+        </ext>
+      </extLst>
+    </dataField>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -19112,7 +19725,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05E5698D-DC20-4429-9B4A-E071830428AE}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05E5698D-DC20-4429-9B4A-E071830428AE}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A1:B5" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -19145,10 +19758,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Μ.Ο. Ευχαρίστησης Ανά Φύλο" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="32">
+  <formats count="3">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -19157,8 +19770,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="17">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -19171,11 +19787,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79700309-DF41-4121-A667-F38EEE1E1192}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1:C25" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79700309-DF41-4121-A667-F38EEE1E1192}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" grandTotalCaption="Γενικό Σύνολο" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A1:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -19200,91 +19816,63 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
+  <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="11">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
       <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
+    <i>
       <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Μ.Ο Ευχαρίστησης ανά φύλο και ηλικία" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="30">
+  <formats count="4">
+    <format dxfId="16">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -19293,8 +19881,27 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="15">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="1" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -19307,8 +19914,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4116700C-B2E6-4E43-9EAE-D629170834D1}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1:C69" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4116700C-B2E6-4E43-9EAE-D629170834D1}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" grandTotalCaption="Γενικό Σύνολο" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A1:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -19328,245 +19935,101 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="8">
         <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="4"/>
   </rowFields>
-  <rowItems count="67">
+  <rowItems count="11">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x v="9"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Μ.Ο Ευχαρίστησης ανά ηλικία και ημέρα" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="28">
+  <formats count="2">
+    <format dxfId="14">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -19579,11 +20042,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47387626-D27C-436E-A19B-89B418634373}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1:C33" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47387626-D27C-436E-A19B-89B418634373}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" grandTotalCaption="Γενικό Σύνολο" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A1:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -19608,124 +20071,67 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="11">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="9"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Μ.Ο. Ευχαρίστησης ανά φύλο και ηλικία" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="27">
+  <formats count="2">
+    <format dxfId="13">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -19756,7 +20162,7 @@
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item x="6"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="5"/>
         <item h="1" x="0"/>
         <item h="1" x="4"/>
@@ -19772,13 +20178,13 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="4" item="2" hier="-1"/>
+    <pageField fld="4" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="26">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -19787,7 +20193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="11">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
@@ -19801,7 +20207,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC088A7-0E02-44DD-ACEA-ADD3084BEFA3}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC088A7-0E02-44DD-ACEA-ADD3084BEFA3}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="7">
   <location ref="A4:G6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -19860,13 +20266,13 @@
     <pageField fld="4" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of ΑΑ" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Βαθμός Ευχαρίστησης" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="24">
+    <format dxfId="10">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20030,10 +20436,10 @@
     <dataField name="Average of Ευχαρίστηση" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="22">
+    <format dxfId="8">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -20045,7 +20451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -20057,7 +20463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20563,7 +20969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1751C70-B7DF-4E6B-9E29-3A9B8203C530}">
   <dimension ref="A1:E1439"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -45059,7 +45465,7 @@
   <dimension ref="A4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -45092,7 +45498,7 @@
       <c r="C5" s="12" t="s">
         <v>1451</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -45100,13 +45506,13 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>2.9905660377358489</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>3.0921985815602837</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>3.048582995951417</v>
       </c>
     </row>
@@ -45114,13 +45520,13 @@
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="24">
         <v>3.140625</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>3.10752688172043</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>3.121019108280255</v>
       </c>
     </row>
@@ -45128,13 +45534,13 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="24">
         <v>2.8736842105263158</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <v>3.0516129032258066</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>2.984</v>
       </c>
     </row>
@@ -45142,13 +45548,13 @@
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="24">
         <v>3.3943661971830985</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <v>2.8636363636363638</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>3.10062893081761</v>
       </c>
     </row>
@@ -45156,13 +45562,13 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <v>3.2173913043478262</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="26">
         <v>2.9057971014492754</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>3.0096618357487923</v>
       </c>
     </row>
@@ -45170,13 +45576,13 @@
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="24">
         <v>2.9780219780219781</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>2.9714285714285715</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>2.9740259740259742</v>
       </c>
     </row>
@@ -45184,13 +45590,13 @@
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="24">
         <v>3.0294117647058822</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>3.2352941176470589</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>3.1604278074866312</v>
       </c>
     </row>
@@ -45198,23 +45604,23 @@
       <c r="A13" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="27">
         <v>3.0691489361702127</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="28">
         <v>3.0343249427917618</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>3.0479833101529903</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="29" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -45232,54 +45638,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834DDBDE-AD4A-4C13-A5E7-ED5B10881C95}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="32">
         <v>564</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="35">
+        <v>0.39221140472878996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="33">
         <v>874</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="36">
+        <v>0.60778859527120999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="34">
         <v>1438</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -45290,179 +45710,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3060B9B-5729-467A-BE33-632F7109FD10}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>1456</v>
-      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1455</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5" t="s">
-        <v>1458</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B3" s="32">
+        <v>247</v>
+      </c>
+      <c r="C3" s="38">
+        <v>157</v>
+      </c>
+      <c r="D3" s="38">
+        <v>250</v>
+      </c>
+      <c r="E3" s="38">
+        <v>159</v>
+      </c>
+      <c r="F3" s="38">
+        <v>207</v>
+      </c>
+      <c r="G3" s="38">
+        <v>231</v>
+      </c>
+      <c r="H3" s="38">
+        <v>187</v>
+      </c>
+      <c r="I3" s="30">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0.1717663421418637</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.10917941585535466</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0.17385257301808066</v>
+      </c>
+      <c r="E4" s="44">
+        <v>0.1105702364394993</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0.14394993045897078</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0.16063977746870653</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0.13004172461752433</v>
+      </c>
+      <c r="I4" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B4" s="11">
-        <v>247</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B5" s="40">
         <v>0.1717663421418637</v>
       </c>
-      <c r="D4" s="11">
-        <v>187</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.13004172461752433</v>
-      </c>
-      <c r="F4" s="11">
-        <v>207</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.14394993045897078</v>
-      </c>
-      <c r="H4" s="11">
-        <v>159</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.1105702364394993</v>
-      </c>
-      <c r="J4" s="11">
-        <v>231</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0.16063977746870653</v>
-      </c>
-      <c r="L4" s="11">
-        <v>250</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0.17385257301808066</v>
-      </c>
-      <c r="N4" s="11">
-        <v>157</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0.10917941585535466</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1438</v>
-      </c>
-      <c r="Q4" s="19">
+      <c r="C5" s="41">
+        <v>0.28094575799721838</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.45479833101529904</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.56536856745479835</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0.70931849791376911</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.86995827538247561</v>
+      </c>
+      <c r="H5" s="41">
         <v>1</v>
       </c>
+      <c r="I5" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45474,20 +45863,20 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -45495,7 +45884,7 @@
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="46" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -45503,7 +45892,7 @@
       <c r="A3" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="47">
         <v>3.0691489361702127</v>
       </c>
     </row>
@@ -45511,7 +45900,7 @@
       <c r="A4" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="48">
         <v>3.0343249427917618</v>
       </c>
     </row>
@@ -45519,7 +45908,7 @@
       <c r="A5" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="49">
         <v>3.0479833101529903</v>
       </c>
     </row>
@@ -45530,245 +45919,194 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30A2B4C-250A-4476-8FE2-D0526C8D9591}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="B2" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>18</v>
       </c>
-      <c r="C3" s="20">
+      <c r="B3" s="22">
         <v>3.2916666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10">
+      <c r="C3" s="23">
+        <v>3.0827067669172932</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3.1560975609756099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>19</v>
       </c>
-      <c r="C4" s="21">
+      <c r="B4" s="24">
         <v>3.1568627450980391</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10">
+      <c r="C4" s="25">
+        <v>3.1009174311926606</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3.1279620853080567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>20</v>
       </c>
-      <c r="C5" s="21">
+      <c r="B5" s="24">
         <v>2.9645390070921986</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10">
+      <c r="C5" s="25">
+        <v>2.9690721649484537</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2.9675925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>21</v>
       </c>
-      <c r="C6" s="21">
+      <c r="B6" s="24">
         <v>2.9666666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10">
+      <c r="C6" s="25">
+        <v>3.0454545454545454</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>22</v>
       </c>
-      <c r="C7" s="21">
+      <c r="B7" s="24">
         <v>2.9452054794520546</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10">
+      <c r="C7" s="25">
+        <v>3.0551181102362204</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.0150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>23</v>
       </c>
-      <c r="C8" s="21">
+      <c r="B8" s="24">
         <v>3.2972972972972974</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10">
+      <c r="C8" s="25">
+        <v>3.0918367346938775</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3.1802325581395348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>24</v>
       </c>
-      <c r="C9" s="21">
+      <c r="B9" s="24">
         <v>2.4285714285714284</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10">
+      <c r="C9" s="25">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>25</v>
       </c>
-      <c r="C10" s="21">
+      <c r="B10" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10">
+      <c r="C10" s="25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>26</v>
       </c>
-      <c r="C11" s="21">
+      <c r="B11" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10">
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="B12" s="24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="20">
+      <c r="C12" s="25">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B13" s="27">
         <v>3.0691489361702127</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B14" s="5">
-        <v>18</v>
-      </c>
-      <c r="C14" s="20">
-        <v>3.0827067669172932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10">
-        <v>19</v>
-      </c>
-      <c r="C15" s="21">
-        <v>3.1009174311926606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10">
-        <v>20</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2.9690721649484537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10">
-        <v>21</v>
-      </c>
-      <c r="C17" s="21">
-        <v>3.0454545454545454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10">
-        <v>22</v>
-      </c>
-      <c r="C18" s="21">
-        <v>3.0551181102362204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10">
-        <v>23</v>
-      </c>
-      <c r="C19" s="21">
-        <v>3.0918367346938775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10">
-        <v>24</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10">
-        <v>25</v>
-      </c>
-      <c r="C21" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10">
-        <v>26</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10">
-        <v>27</v>
-      </c>
-      <c r="C23" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="20">
+      <c r="C13" s="28">
         <v>3.0343249427917618</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22">
+      <c r="D13" s="19">
         <v>3.0479833101529903</v>
       </c>
     </row>
@@ -45784,657 +46122,351 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1E8150-79F5-4272-B988-87FA0B650358}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="22">
         <v>3.3142857142857145</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="C3" s="23">
+        <v>3.04</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3.2790697674418605</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3.0294117647058822</v>
+      </c>
+      <c r="H3" s="23">
         <v>2.7586206896551726</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="21">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="I3" s="17">
+        <v>3.1560975609756099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>19</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3.4583333333333335</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="F4" s="25">
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="G4" s="25">
+        <v>3.1739130434782608</v>
+      </c>
+      <c r="H4" s="25">
+        <v>3.2352941176470589</v>
+      </c>
+      <c r="I4" s="18">
+        <v>3.1279620853080567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>20</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2.883116883116883</v>
+      </c>
+      <c r="C5" s="25">
+        <v>3.1590909090909092</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.9420289855072466</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2.96</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2.887323943661972</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2.7916666666666665</v>
+      </c>
+      <c r="H5" s="25">
+        <v>3.3469387755102042</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2.9675925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>21</v>
+      </c>
+      <c r="B6" s="24">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2.5625</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3.0606060606060606</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3.28125</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="25">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="H6" s="25">
+        <v>3.0689655172413794</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="C7" s="25">
         <v>3.2857142857142856</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="21">
-        <v>3.0294117647058822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21">
-        <v>3.2790697674418605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="21">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="20">
-        <v>3.1560975609756099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="20">
-        <v>3.1111111111111112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21">
-        <v>3.2352941176470589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21">
-        <v>3.2666666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2.9523809523809526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="21">
-        <v>3.1739130434782608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2.7647058823529411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="21">
-        <v>3.4583333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="20">
-        <v>3.1279620853080567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="20">
-        <v>2.883116883116883</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="21">
-        <v>3.3469387755102042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="21">
-        <v>2.887323943661972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="21">
-        <v>2.7916666666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="21">
-        <v>2.9420289855072466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="21">
-        <v>3.1590909090909092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="20">
-        <v>2.9675925925925926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>21</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="20">
-        <v>3.1388888888888888</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="21">
-        <v>3.0689655172413794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="21">
-        <v>3.28125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="21">
-        <v>3.1428571428571428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="21">
-        <v>3.0606060606060606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="21">
-        <v>2.5625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="D7" s="25">
+        <v>2.85</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3.16</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="G7" s="25">
+        <v>3.1714285714285713</v>
+      </c>
+      <c r="H7" s="25">
+        <v>3.2608695652173911</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3.0150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3.1153846153846154</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3.074074074074074</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3.1875</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+      <c r="H8" s="25">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3.1802325581395348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>24</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>25</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>3</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25">
+        <v>3</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>27</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>5</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>1464</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="20">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>22</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="20">
-        <v>2.9629629629629628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="21">
-        <v>3.2608695652173911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21">
-        <v>2.3636363636363638</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="21">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="21">
-        <v>3.1714285714285713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="21">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="21">
-        <v>3.2857142857142856</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="20">
-        <v>3.0150000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>23</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="20">
-        <v>3.1153846153846154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="21">
-        <v>3.2857142857142856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="21">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="21">
-        <v>3.1875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="21">
-        <v>3.074074074074074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="21">
-        <v>2.9411764705882355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="20">
-        <v>3.1802325581395348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>24</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="20">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>25</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="20">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>26</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>27</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="20">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="22">
+      <c r="B13" s="27">
+        <v>3.048582995951417</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3.121019108280255</v>
+      </c>
+      <c r="D13" s="28">
+        <v>2.984</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3.10062893081761</v>
+      </c>
+      <c r="F13" s="28">
+        <v>3.0096618357487923</v>
+      </c>
+      <c r="G13" s="28">
+        <v>2.9740259740259742</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3.1604278074866312</v>
+      </c>
+      <c r="I13" s="19">
         <v>3.0479833101529903</v>
       </c>
     </row>
@@ -46450,333 +46482,195 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB42095-D549-469C-B716-C69440840051}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BR15" sqref="BR15"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1466</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="22">
         <v>3.2916666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="C3" s="23">
         <v>3.0827067669172932</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="20">
+      <c r="D3" s="17">
         <v>3.1560975609756099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B4" s="24">
         <v>3.1568627450980391</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="C4" s="25">
         <v>3.1009174311926606</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="20">
+      <c r="D4" s="18">
         <v>3.1279620853080567</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B5" s="24">
         <v>2.9645390070921986</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="C5" s="25">
         <v>2.9690721649484537</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="20">
+      <c r="D5" s="18">
         <v>2.9675925925925926</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B6" s="24">
         <v>2.9666666666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="C6" s="25">
         <v>3.0454545454545454</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D6" s="18">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2.9452054794520546</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3.0551181102362204</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.0150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3.2972972972972974</v>
+      </c>
+      <c r="C8" s="25">
+        <v>3.0918367346938775</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3.1802325581395348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>24</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>25</v>
+      </c>
+      <c r="B10" s="24">
+        <v>3</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>27</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>1464</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="20">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C15" s="20">
-        <v>2.9452054794520546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C16" s="21">
-        <v>3.0551181102362204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="20">
-        <v>3.0150000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C18" s="20">
-        <v>3.2972972972972974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C19" s="21">
-        <v>3.0918367346938775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="20">
-        <v>3.1802325581395348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C21" s="20">
-        <v>2.4285714285714284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="20">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C24" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C25" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="20">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C27" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C28" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C30" s="20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C31" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="20">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="22">
+      <c r="B13" s="27">
+        <v>3.0691489361702127</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3.0343249427917618</v>
+      </c>
+      <c r="D13" s="19">
         <v>3.0479833101529903</v>
       </c>
     </row>
@@ -46795,36 +46689,36 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>9</v>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -46832,8 +46726,8 @@
       <c r="A5" s="11" t="s">
         <v>1453</v>
       </c>
-      <c r="B5" s="22">
-        <v>2.9057971014492754</v>
+      <c r="B5" s="19">
+        <v>2.8636363636363638</v>
       </c>
     </row>
   </sheetData>
@@ -46851,27 +46745,27 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
@@ -46899,7 +46793,7 @@
       <c r="F5" s="12">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -46907,22 +46801,22 @@
       <c r="A6" s="11" t="s">
         <v>1453</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="21">
         <v>0.16042780748663102</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>0.17112299465240641</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>0.22994652406417113</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>0.22459893048128343</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>0.21390374331550802</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
     </row>
